--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H2">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.7848491929517</v>
+        <v>37.42645866666667</v>
       </c>
       <c r="N2">
-        <v>21.7848491929517</v>
+        <v>112.279376</v>
       </c>
       <c r="O2">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="P2">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="Q2">
-        <v>23.21782482624382</v>
+        <v>48.89316459747378</v>
       </c>
       <c r="R2">
-        <v>23.21782482624382</v>
+        <v>440.038481377264</v>
       </c>
       <c r="S2">
-        <v>0.05685502308209651</v>
+        <v>0.09746496537048867</v>
       </c>
       <c r="T2">
-        <v>0.05685502308209651</v>
+        <v>0.09746496537048864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H3">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>94.3739912757235</v>
+        <v>94.96115633333334</v>
       </c>
       <c r="N3">
-        <v>94.3739912757235</v>
+        <v>284.883469</v>
       </c>
       <c r="O3">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="P3">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="Q3">
-        <v>100.5817748925313</v>
+        <v>124.0553237570212</v>
       </c>
       <c r="R3">
-        <v>100.5817748925313</v>
+        <v>1116.497913813191</v>
       </c>
       <c r="S3">
-        <v>0.2463012438051138</v>
+        <v>0.2472952596450988</v>
       </c>
       <c r="T3">
-        <v>0.2463012438051138</v>
+        <v>0.2472952596450988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H4">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I4">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J4">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.5146585589683</v>
+        <v>22.553069</v>
       </c>
       <c r="N4">
-        <v>22.5146585589683</v>
+        <v>67.65920699999999</v>
       </c>
       <c r="O4">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="P4">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="Q4">
-        <v>23.99563998882056</v>
+        <v>29.46287076253033</v>
       </c>
       <c r="R4">
-        <v>23.99563998882056</v>
+        <v>265.1658368627729</v>
       </c>
       <c r="S4">
-        <v>0.05875971050879803</v>
+        <v>0.05873208867182984</v>
       </c>
       <c r="T4">
-        <v>0.05875971050879803</v>
+        <v>0.05873208867182982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H5">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.7848491929517</v>
+        <v>37.42645866666667</v>
       </c>
       <c r="N5">
-        <v>21.7848491929517</v>
+        <v>112.279376</v>
       </c>
       <c r="O5">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="P5">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="Q5">
-        <v>22.47189653429163</v>
+        <v>40.14219736043733</v>
       </c>
       <c r="R5">
-        <v>22.47189653429163</v>
+        <v>361.2797762439359</v>
       </c>
       <c r="S5">
-        <v>0.05502841914422058</v>
+        <v>0.08002054904485553</v>
       </c>
       <c r="T5">
-        <v>0.05502841914422058</v>
+        <v>0.08002054904485553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H6">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J6">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.3739912757235</v>
+        <v>94.96115633333334</v>
       </c>
       <c r="N6">
-        <v>94.3739912757235</v>
+        <v>284.883469</v>
       </c>
       <c r="O6">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="P6">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="Q6">
-        <v>97.3503442090549</v>
+        <v>101.8517277591927</v>
       </c>
       <c r="R6">
-        <v>97.3503442090549</v>
+        <v>916.6655498327339</v>
       </c>
       <c r="S6">
-        <v>0.2383882257910585</v>
+        <v>0.2030340069148859</v>
       </c>
       <c r="T6">
-        <v>0.2383882257910585</v>
+        <v>0.2030340069148859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H7">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J7">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.5146585589683</v>
+        <v>22.553069</v>
       </c>
       <c r="N7">
-        <v>22.5146585589683</v>
+        <v>67.65920699999999</v>
       </c>
       <c r="O7">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="P7">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="Q7">
-        <v>23.22472251980216</v>
+        <v>24.18956479277799</v>
       </c>
       <c r="R7">
-        <v>23.22472251980216</v>
+        <v>217.706083135002</v>
       </c>
       <c r="S7">
-        <v>0.05687191392046777</v>
+        <v>0.04822013699185086</v>
       </c>
       <c r="T7">
-        <v>0.05687191392046777</v>
+        <v>0.04822013699185086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H8">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I8">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J8">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7848491929517</v>
+        <v>37.42645866666667</v>
       </c>
       <c r="N8">
-        <v>21.7848491929517</v>
+        <v>112.279376</v>
       </c>
       <c r="O8">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="P8">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="Q8">
-        <v>18.46280650876854</v>
+        <v>32.13959711541334</v>
       </c>
       <c r="R8">
-        <v>18.46280650876854</v>
+        <v>289.25637403872</v>
       </c>
       <c r="S8">
-        <v>0.04521109527150041</v>
+        <v>0.0640679478545569</v>
       </c>
       <c r="T8">
-        <v>0.04521109527150041</v>
+        <v>0.06406794785455688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H9">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I9">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J9">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>94.3739912757235</v>
+        <v>94.96115633333334</v>
       </c>
       <c r="N9">
-        <v>94.3739912757235</v>
+        <v>284.883469</v>
       </c>
       <c r="O9">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="P9">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="Q9">
-        <v>79.98259363427836</v>
+        <v>81.54694338968667</v>
       </c>
       <c r="R9">
-        <v>79.98259363427836</v>
+        <v>733.92249050718</v>
       </c>
       <c r="S9">
-        <v>0.195858666402839</v>
+        <v>0.1625578969776006</v>
       </c>
       <c r="T9">
-        <v>0.195858666402839</v>
+        <v>0.1625578969776005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H10">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I10">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J10">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.5146585589683</v>
+        <v>22.553069</v>
       </c>
       <c r="N10">
-        <v>22.5146585589683</v>
+        <v>67.65920699999999</v>
       </c>
       <c r="O10">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="P10">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="Q10">
-        <v>19.08132486497598</v>
+        <v>19.36722247306</v>
       </c>
       <c r="R10">
-        <v>19.08132486497598</v>
+        <v>174.30500225754</v>
       </c>
       <c r="S10">
-        <v>0.04672570207390531</v>
+        <v>0.03860714852883285</v>
       </c>
       <c r="T10">
-        <v>0.04672570207390531</v>
+        <v>0.03860714852883285</v>
       </c>
     </row>
   </sheetData>
